--- a/data_Roko_26_6_2017_filtrirani.xlsx
+++ b/data_Roko_26_6_2017_filtrirani.xlsx
@@ -1313,10 +1313,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:CL100"/>
+  <dimension ref="A1:CL205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="BI1" workbookViewId="0">
-      <selection activeCell="BN14" sqref="BN14"/>
+    <sheetView tabSelected="1" topLeftCell="CB190" workbookViewId="0">
+      <selection activeCell="CB205" sqref="CB205:CD205"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12396,6 +12396,793 @@
       <c r="CK100">
         <f t="shared" si="4"/>
         <v>0.93620963947912761</v>
+      </c>
+    </row>
+    <row r="104" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="CB104">
+        <v>0.58221368799999995</v>
+      </c>
+      <c r="CC104">
+        <v>0.37311718199999999</v>
+      </c>
+      <c r="CD104">
+        <v>0.96479431999999998</v>
+      </c>
+    </row>
+    <row r="105" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="CB105">
+        <v>0.95238951999999999</v>
+      </c>
+    </row>
+    <row r="106" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="CB106">
+        <v>0.82725172000000002</v>
+      </c>
+      <c r="CD106">
+        <v>0.97784297799999997</v>
+      </c>
+    </row>
+    <row r="107" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="CB107">
+        <v>0.82249850999999996</v>
+      </c>
+      <c r="CD107">
+        <v>0.95653855499999996</v>
+      </c>
+    </row>
+    <row r="108" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="CB108">
+        <v>0.81388225999999997</v>
+      </c>
+      <c r="CC108">
+        <v>0.52593823100000003</v>
+      </c>
+      <c r="CD108">
+        <v>0.83992989799999995</v>
+      </c>
+    </row>
+    <row r="110" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="CB110">
+        <v>0.86836921199999995</v>
+      </c>
+      <c r="CC110">
+        <v>0.55446286099999997</v>
+      </c>
+      <c r="CD110">
+        <v>0.64695264500000005</v>
+      </c>
+    </row>
+    <row r="112" spans="1:89" x14ac:dyDescent="0.25">
+      <c r="CB112">
+        <v>0.94599928700000002</v>
+      </c>
+      <c r="CC112">
+        <v>0.464611516</v>
+      </c>
+      <c r="CD112">
+        <v>0.91529474</v>
+      </c>
+    </row>
+    <row r="113" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC113">
+        <v>0.71586919000000004</v>
+      </c>
+      <c r="CD113">
+        <v>0.72996317600000005</v>
+      </c>
+    </row>
+    <row r="114" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB114">
+        <v>0.78993997999999999</v>
+      </c>
+      <c r="CC114">
+        <v>0.79598800000000003</v>
+      </c>
+      <c r="CD114">
+        <v>0.96784591499999995</v>
+      </c>
+    </row>
+    <row r="115" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB115">
+        <v>0.849736618</v>
+      </c>
+      <c r="CC115">
+        <v>0.49944371300000001</v>
+      </c>
+      <c r="CD115">
+        <v>0.94864595699999998</v>
+      </c>
+    </row>
+    <row r="116" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB116">
+        <v>0.92878168900000002</v>
+      </c>
+      <c r="CC116">
+        <v>0.22811580000000001</v>
+      </c>
+      <c r="CD116">
+        <v>0.82558962999999996</v>
+      </c>
+    </row>
+    <row r="117" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB117">
+        <v>0.85297895999999995</v>
+      </c>
+      <c r="CD117">
+        <v>0.924141396</v>
+      </c>
+    </row>
+    <row r="118" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC118">
+        <v>0.78911489700000004</v>
+      </c>
+      <c r="CD118">
+        <v>0.93778342999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB120">
+        <v>0.65631589999999995</v>
+      </c>
+      <c r="CD120">
+        <v>0.68149738999999998</v>
+      </c>
+    </row>
+    <row r="121" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB121">
+        <v>1</v>
+      </c>
+      <c r="CD121">
+        <v>0.82218177999999997</v>
+      </c>
+    </row>
+    <row r="122" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC122">
+        <v>0.64138870000000003</v>
+      </c>
+      <c r="CD122">
+        <v>0.7413537</v>
+      </c>
+    </row>
+    <row r="123" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC123">
+        <v>0.59372557999999998</v>
+      </c>
+      <c r="CD123">
+        <v>0.75114562299999998</v>
+      </c>
+    </row>
+    <row r="124" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB124">
+        <v>0.89952449999999995</v>
+      </c>
+      <c r="CC124">
+        <v>0.56253467000000001</v>
+      </c>
+      <c r="CD124">
+        <v>0.93211421100000003</v>
+      </c>
+    </row>
+    <row r="125" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB125">
+        <v>0.77548899999999998</v>
+      </c>
+      <c r="CC125">
+        <v>0.53135180000000004</v>
+      </c>
+      <c r="CD125">
+        <v>0.86477921999999996</v>
+      </c>
+    </row>
+    <row r="126" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC126">
+        <v>0.75862777199999998</v>
+      </c>
+      <c r="CD126">
+        <v>0.65244644699999998</v>
+      </c>
+    </row>
+    <row r="127" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB127">
+        <v>0.51427348900000003</v>
+      </c>
+      <c r="CD127">
+        <v>0.92182576000000005</v>
+      </c>
+    </row>
+    <row r="128" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB128">
+        <v>0.95481435299999995</v>
+      </c>
+      <c r="CC128">
+        <v>0.36811939500000002</v>
+      </c>
+      <c r="CD128">
+        <v>0.78382758799999996</v>
+      </c>
+    </row>
+    <row r="129" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB129">
+        <v>0.77359481500000005</v>
+      </c>
+      <c r="CC129">
+        <v>0.17497433900000001</v>
+      </c>
+      <c r="CD129">
+        <v>0.75754653999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB130">
+        <v>0.9879985</v>
+      </c>
+      <c r="CC130">
+        <v>0.78784559099999996</v>
+      </c>
+      <c r="CD130">
+        <v>0.92323728999999999</v>
+      </c>
+    </row>
+    <row r="131" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB131">
+        <v>0.87167978400000001</v>
+      </c>
+      <c r="CC131">
+        <v>0.286938743</v>
+      </c>
+      <c r="CD131">
+        <v>0.79585556599999996</v>
+      </c>
+    </row>
+    <row r="132" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB132">
+        <v>0.67574114200000002</v>
+      </c>
+      <c r="CD132">
+        <v>0.91431132800000003</v>
+      </c>
+    </row>
+    <row r="134" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB134">
+        <v>0.86187999999999998</v>
+      </c>
+      <c r="CC134">
+        <v>0.31212477900000002</v>
+      </c>
+      <c r="CD134">
+        <v>0.88864977999999994</v>
+      </c>
+    </row>
+    <row r="137" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC137">
+        <v>0.55428794000000003</v>
+      </c>
+      <c r="CD137">
+        <v>0.65725999999999996</v>
+      </c>
+    </row>
+    <row r="138" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC138">
+        <v>0.47524963999999997</v>
+      </c>
+      <c r="CD138">
+        <v>0.92296998699999999</v>
+      </c>
+    </row>
+    <row r="139" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC139">
+        <v>0.91147931000000004</v>
+      </c>
+      <c r="CD139">
+        <v>0.69169840000000005</v>
+      </c>
+    </row>
+    <row r="141" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB141">
+        <v>0.75863986999999999</v>
+      </c>
+      <c r="CD141">
+        <v>0.95262530000000001</v>
+      </c>
+    </row>
+    <row r="142" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC142">
+        <v>0.65225115</v>
+      </c>
+      <c r="CD142">
+        <v>0.59166131700000002</v>
+      </c>
+    </row>
+    <row r="143" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB143">
+        <v>0.69425652000000004</v>
+      </c>
+      <c r="CC143">
+        <v>0.67343697999999996</v>
+      </c>
+      <c r="CD143">
+        <v>0.79586429000000003</v>
+      </c>
+    </row>
+    <row r="144" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB144">
+        <v>0.63526727900000002</v>
+      </c>
+    </row>
+    <row r="145" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB145">
+        <v>0.84776527899999998</v>
+      </c>
+      <c r="CD145">
+        <v>0.92188269499999997</v>
+      </c>
+    </row>
+    <row r="146" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB146">
+        <v>0.99812354999999997</v>
+      </c>
+      <c r="CC146">
+        <v>0.38942479200000002</v>
+      </c>
+      <c r="CD146">
+        <v>0.83881456200000004</v>
+      </c>
+    </row>
+    <row r="147" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC147">
+        <v>0.55972233000000005</v>
+      </c>
+      <c r="CD147">
+        <v>0.74565574000000001</v>
+      </c>
+    </row>
+    <row r="148" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB148">
+        <v>0.913815563</v>
+      </c>
+      <c r="CC148">
+        <v>0.56844958999999995</v>
+      </c>
+      <c r="CD148">
+        <v>0.95671813999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB149">
+        <v>0.89477280999999997</v>
+      </c>
+      <c r="CC149">
+        <v>0.4766765</v>
+      </c>
+      <c r="CD149">
+        <v>0.76578283999999996</v>
+      </c>
+    </row>
+    <row r="150" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB150">
+        <v>0.94111325999999995</v>
+      </c>
+      <c r="CC150">
+        <v>0.26499934000000003</v>
+      </c>
+      <c r="CD150">
+        <v>0.97118565000000001</v>
+      </c>
+    </row>
+    <row r="151" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB151">
+        <v>0.95978711999999999</v>
+      </c>
+      <c r="CC151">
+        <v>0.412984872</v>
+      </c>
+      <c r="CD151">
+        <v>0.96754361799999999</v>
+      </c>
+    </row>
+    <row r="152" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB152">
+        <v>0.33238329999999999</v>
+      </c>
+      <c r="CD152">
+        <v>0.94723668999999999</v>
+      </c>
+    </row>
+    <row r="153" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB153">
+        <v>0.87184894999999996</v>
+      </c>
+      <c r="CC153">
+        <v>0.121515518</v>
+      </c>
+      <c r="CD153">
+        <v>0.95472391999999995</v>
+      </c>
+    </row>
+    <row r="154" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB154">
+        <v>0.95649752799999999</v>
+      </c>
+      <c r="CC154">
+        <v>0.5</v>
+      </c>
+      <c r="CD154">
+        <v>0.88529360000000001</v>
+      </c>
+    </row>
+    <row r="155" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB155">
+        <v>0.84282162999999999</v>
+      </c>
+      <c r="CC155">
+        <v>0.68662719999999999</v>
+      </c>
+      <c r="CD155">
+        <v>0.97559918000000001</v>
+      </c>
+    </row>
+    <row r="156" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB156">
+        <v>0.79747159599999995</v>
+      </c>
+      <c r="CC156">
+        <v>0.58921217999999997</v>
+      </c>
+      <c r="CD156">
+        <v>0.99375581800000001</v>
+      </c>
+    </row>
+    <row r="158" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB158">
+        <v>0.88464283300000002</v>
+      </c>
+      <c r="CD158">
+        <v>0.97765394000000005</v>
+      </c>
+    </row>
+    <row r="159" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB159">
+        <v>0.62922769000000001</v>
+      </c>
+      <c r="CD159">
+        <v>0.98793149999999996</v>
+      </c>
+    </row>
+    <row r="161" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB161">
+        <v>0.74491629999999998</v>
+      </c>
+      <c r="CD161">
+        <v>0.95723146999999997</v>
+      </c>
+    </row>
+    <row r="164" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC164">
+        <v>0.62178986999999997</v>
+      </c>
+      <c r="CD164">
+        <v>0.77613141600000002</v>
+      </c>
+    </row>
+    <row r="165" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB165">
+        <v>0.89218379999999997</v>
+      </c>
+      <c r="CD165">
+        <v>0.98398892599999999</v>
+      </c>
+    </row>
+    <row r="166" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB166">
+        <v>0.83799418999999997</v>
+      </c>
+      <c r="CC166">
+        <v>0.23896129999999999</v>
+      </c>
+      <c r="CD166">
+        <v>0.82864639299999998</v>
+      </c>
+    </row>
+    <row r="168" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC168">
+        <v>0.33333333300000001</v>
+      </c>
+      <c r="CD168">
+        <v>0.72434954100000004</v>
+      </c>
+    </row>
+    <row r="169" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB169">
+        <v>0.93818249499999995</v>
+      </c>
+      <c r="CC169">
+        <v>0.12158568</v>
+      </c>
+      <c r="CD169">
+        <v>0.92212994199999998</v>
+      </c>
+    </row>
+    <row r="170" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB170">
+        <v>0.44216636999999998</v>
+      </c>
+      <c r="CD170">
+        <v>0.98766480999999995</v>
+      </c>
+    </row>
+    <row r="171" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC171">
+        <v>0.96736259999999996</v>
+      </c>
+      <c r="CD171">
+        <v>0.81852499999999995</v>
+      </c>
+    </row>
+    <row r="172" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB172">
+        <v>0.654894266</v>
+      </c>
+      <c r="CD172">
+        <v>0.99138775199999996</v>
+      </c>
+    </row>
+    <row r="173" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB173">
+        <v>0.86661292999999995</v>
+      </c>
+      <c r="CD173">
+        <v>0.99253970999999996</v>
+      </c>
+    </row>
+    <row r="174" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB174">
+        <v>0.91383650000000005</v>
+      </c>
+      <c r="CC174">
+        <v>0.556613782</v>
+      </c>
+      <c r="CD174">
+        <v>0.85711219000000005</v>
+      </c>
+    </row>
+    <row r="175" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB175">
+        <v>0.62147365399999999</v>
+      </c>
+      <c r="CD175">
+        <v>0.85382976399999999</v>
+      </c>
+    </row>
+    <row r="177" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC177">
+        <v>0.21195481999999999</v>
+      </c>
+      <c r="CD177">
+        <v>0.69579429999999998</v>
+      </c>
+    </row>
+    <row r="178" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB178">
+        <v>0.64899832400000002</v>
+      </c>
+      <c r="CD178">
+        <v>0.87393156000000005</v>
+      </c>
+    </row>
+    <row r="179" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC179">
+        <v>0.54692928100000004</v>
+      </c>
+      <c r="CD179">
+        <v>0.77215769099999998</v>
+      </c>
+    </row>
+    <row r="180" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC180">
+        <v>0.82381354500000004</v>
+      </c>
+      <c r="CD180">
+        <v>0.77645450000000005</v>
+      </c>
+    </row>
+    <row r="181" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC181">
+        <v>0.83563525900000002</v>
+      </c>
+      <c r="CD181">
+        <v>0.62472326</v>
+      </c>
+    </row>
+    <row r="182" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB182">
+        <v>0.91575552000000005</v>
+      </c>
+      <c r="CC182">
+        <v>0.3117489</v>
+      </c>
+      <c r="CD182">
+        <v>0.85572877999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC183">
+        <v>0.93743449000000001</v>
+      </c>
+      <c r="CD183">
+        <v>0.81464590000000003</v>
+      </c>
+    </row>
+    <row r="185" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC185">
+        <v>0.51775546100000003</v>
+      </c>
+      <c r="CD185">
+        <v>0.67524375999999997</v>
+      </c>
+    </row>
+    <row r="186" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB186">
+        <v>0.644944874</v>
+      </c>
+      <c r="CC186">
+        <v>0.4637385</v>
+      </c>
+      <c r="CD186">
+        <v>0.91261942900000004</v>
+      </c>
+    </row>
+    <row r="187" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB187">
+        <v>0.82534669999999999</v>
+      </c>
+      <c r="CD187">
+        <v>0.96922446100000004</v>
+      </c>
+    </row>
+    <row r="188" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB188">
+        <v>0.81315382700000005</v>
+      </c>
+      <c r="CD188">
+        <v>0.89711817000000005</v>
+      </c>
+    </row>
+    <row r="189" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB189">
+        <v>0.81777361000000004</v>
+      </c>
+      <c r="CD189">
+        <v>0.98383637999999995</v>
+      </c>
+    </row>
+    <row r="190" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB190">
+        <v>0.66997624700000002</v>
+      </c>
+      <c r="CC190">
+        <v>0.55461167</v>
+      </c>
+      <c r="CD190">
+        <v>0.92897468999999999</v>
+      </c>
+    </row>
+    <row r="191" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC191">
+        <v>0.91781762899999997</v>
+      </c>
+      <c r="CD191">
+        <v>0.55113774500000001</v>
+      </c>
+    </row>
+    <row r="192" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC192">
+        <v>0.57534233899999998</v>
+      </c>
+      <c r="CD192">
+        <v>0.8153994</v>
+      </c>
+    </row>
+    <row r="193" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB193">
+        <v>0.61388856999999997</v>
+      </c>
+    </row>
+    <row r="194" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC194">
+        <v>0.67431271000000004</v>
+      </c>
+      <c r="CD194">
+        <v>0.67358720000000005</v>
+      </c>
+    </row>
+    <row r="195" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB195">
+        <v>0.71461669999999999</v>
+      </c>
+    </row>
+    <row r="197" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB197">
+        <v>0.95737280999999996</v>
+      </c>
+      <c r="CC197">
+        <v>0.58842474</v>
+      </c>
+      <c r="CD197">
+        <v>0.85145151799999996</v>
+      </c>
+    </row>
+    <row r="198" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB198">
+        <v>0.82315386400000001</v>
+      </c>
+      <c r="CC198">
+        <v>0.297972285</v>
+      </c>
+      <c r="CD198">
+        <v>0.95872383999999999</v>
+      </c>
+    </row>
+    <row r="199" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB199">
+        <v>0.73383636600000002</v>
+      </c>
+      <c r="CD199">
+        <v>0.97835996000000003</v>
+      </c>
+    </row>
+    <row r="200" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC200">
+        <v>0.59542998000000003</v>
+      </c>
+      <c r="CD200">
+        <v>0.63667487</v>
+      </c>
+    </row>
+    <row r="201" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CC201">
+        <v>0.49825224699999998</v>
+      </c>
+      <c r="CD201">
+        <v>0.77561538600000002</v>
+      </c>
+    </row>
+    <row r="202" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB202">
+        <v>0.89783591500000004</v>
+      </c>
+      <c r="CC202">
+        <v>0.83488815999999999</v>
+      </c>
+      <c r="CD202">
+        <v>0.93629638999999998</v>
+      </c>
+    </row>
+    <row r="204" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB204">
+        <f>AVERAGE(CB104:CB202)</f>
+        <v>0.80254502561666674</v>
+      </c>
+      <c r="CC204">
+        <f>AVERAGE(CC104:CC202)</f>
+        <v>0.54081260845614032</v>
+      </c>
+      <c r="CD204">
+        <f>AVERAGE(CD104:CD202)</f>
+        <v>0.8527398519249999</v>
+      </c>
+    </row>
+    <row r="205" spans="80:82" x14ac:dyDescent="0.25">
+      <c r="CB205">
+        <f>_xlfn.STDEV.S(CB104:CB202)</f>
+        <v>0.14155305277678043</v>
+      </c>
+      <c r="CC205">
+        <f>_xlfn.STDEV.S(CC104:CC202)</f>
+        <v>0.21091152835478086</v>
+      </c>
+      <c r="CD205">
+        <f>_xlfn.STDEV.S(CD104:CD202)</f>
+        <v>0.11576670965183765</v>
       </c>
     </row>
   </sheetData>
